--- a/샘플데이터/게시판데이터/게시판데이터(2023-02-02).xlsx
+++ b/샘플데이터/게시판데이터/게시판데이터(2023-02-02).xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\게시판데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2AF1BA29-0B7E-478D-B40A-DD29BE28D4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544DDB5-1294-4C12-B3FF-8F4E3BE5936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3722,7 +3722,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3879,6 +3879,15 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -4064,7 +4073,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -4176,6 +4185,141 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="hair">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4308,7 +4452,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4316,6 +4460,45 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4374,6 +4557,72 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917F204F-F37C-DA61-5FA3-68916D08026F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="11115675" cy="4705350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4676,7 +4925,7 @@
   <dimension ref="A1:I686"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection sqref="A1:I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4690,441 +4939,441 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="14" t="s">
         <v>1228</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="14" t="s">
         <v>1229</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="15" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2">
+    <row r="2" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="5">
         <v>44985</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="6">
         <v>0.74540509259259258</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G2" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="I2" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
+      <c r="B3" s="4">
+        <v>0</v>
+      </c>
+      <c r="C3" s="5">
         <v>45069</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="6">
         <v>0.50547453703703704</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="I3" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
+      <c r="B4" s="4">
+        <v>0</v>
+      </c>
+      <c r="C4" s="5">
         <v>45044</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="6">
         <v>0.43972222222222218</v>
       </c>
-      <c r="E4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
+      <c r="B5" s="4">
+        <v>0</v>
+      </c>
+      <c r="C5" s="5">
         <v>45070</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="6">
         <v>0.73995370370370372</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="E5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G5" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
+      <c r="B6" s="4">
+        <v>0</v>
+      </c>
+      <c r="C6" s="5">
         <v>45233</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="6">
         <v>0.39586805555555554</v>
       </c>
-      <c r="E6" t="s">
-        <v>7</v>
-      </c>
-      <c r="F6" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="E6" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="I6" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="4">
         <v>2</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="5">
         <v>45131</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="6">
         <v>0.66450231481481481</v>
       </c>
-      <c r="E7" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G7" t="s">
+      <c r="E7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H7" t="s">
+      <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
+      <c r="I7" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4">
         <v>3</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="5">
         <v>44975</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="6">
         <v>0.44052083333333331</v>
       </c>
-      <c r="E8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F8" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G8" t="s">
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="H8" t="s">
+      <c r="H8" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="I8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="4">
         <v>3</v>
       </c>
-      <c r="C9" s="1">
+      <c r="C9" s="5">
         <v>45106</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="6">
         <v>0.73291666666666666</v>
       </c>
-      <c r="E9" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G9" t="s">
+      <c r="E9" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="I9" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="4">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="5">
         <v>45067</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="6">
         <v>0.50258101851851855</v>
       </c>
-      <c r="E10" t="s">
-        <v>7</v>
-      </c>
-      <c r="F10" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G10" t="s">
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H10" t="s">
+      <c r="H10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="I10" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="4">
         <v>4</v>
       </c>
-      <c r="C11" s="1">
+      <c r="C11" s="5">
         <v>45249</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="6">
         <v>0.51201388888888888</v>
       </c>
-      <c r="E11" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G11" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="I11" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="4">
         <v>5</v>
       </c>
-      <c r="C12" s="1">
+      <c r="C12" s="5">
         <v>45162</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="6">
         <v>0.44701388888888888</v>
       </c>
-      <c r="E12" t="s">
-        <v>7</v>
-      </c>
-      <c r="F12" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G12" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="H12" t="s">
+      <c r="H12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="4">
         <v>5</v>
       </c>
-      <c r="C13" s="1">
+      <c r="C13" s="5">
         <v>45015</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="6">
         <v>0.63184027777777774</v>
       </c>
-      <c r="E13" t="s">
-        <v>7</v>
-      </c>
-      <c r="F13" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G13" t="s">
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="H13" t="s">
+      <c r="H13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="I13" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="4">
         <v>5</v>
       </c>
-      <c r="C14" s="1">
+      <c r="C14" s="5">
         <v>43099</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="6">
         <v>0.41196759259259258</v>
       </c>
-      <c r="E14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F14" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="E14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15">
+      <c r="I14" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="8">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="9">
         <v>6</v>
       </c>
-      <c r="C15" s="1">
+      <c r="C15" s="10">
         <v>44985</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="11">
         <v>0.41113425925925928</v>
       </c>
-      <c r="E15" t="s">
-        <v>7</v>
-      </c>
-      <c r="F15" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G15" t="s">
+      <c r="E15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I15" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5153,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5182,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5211,7 +5460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5240,7 +5489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5269,7 +5518,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -5298,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -5327,7 +5576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -5356,7 +5605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -5385,7 +5634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -5414,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -5443,7 +5692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -5472,7 +5721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -5501,7 +5750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -5530,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -5559,7 +5808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -5588,7 +5837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -5617,7 +5866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -5646,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -5675,7 +5924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -5704,7 +5953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -5733,7 +5982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -5762,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -5791,7 +6040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -5820,7 +6069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -5849,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -5878,7 +6127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -5907,7 +6156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -5936,7 +6185,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -5965,7 +6214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -5994,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -6023,7 +6272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -6052,7 +6301,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -6081,7 +6330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -6110,7 +6359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -6139,7 +6388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -6168,7 +6417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -6197,7 +6446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -6226,7 +6475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -6255,7 +6504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -6284,7 +6533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -6313,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -6342,7 +6591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -6371,7 +6620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -6400,7 +6649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -6429,7 +6678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -6458,7 +6707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -6487,7 +6736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -6516,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -6545,7 +6794,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -6574,7 +6823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -6603,7 +6852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -6632,7 +6881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -6661,7 +6910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -6690,7 +6939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -6719,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -6748,7 +6997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -6777,7 +7026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -6806,7 +7055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -6835,7 +7084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -6864,7 +7113,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -6893,7 +7142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -6922,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -6951,7 +7200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6980,7 +7229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -7009,7 +7258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -7038,7 +7287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -7067,7 +7316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -7096,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7125,7 +7374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -7154,7 +7403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -7183,7 +7432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7212,7 +7461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -7241,7 +7490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -7270,7 +7519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -7299,7 +7548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -7328,7 +7577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -7357,7 +7606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -7386,7 +7635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -7415,7 +7664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -7444,7 +7693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -7473,7 +7722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -7502,7 +7751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -7531,7 +7780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -7560,7 +7809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -7589,7 +7838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -7618,7 +7867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -7647,7 +7896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -7676,7 +7925,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -7705,7 +7954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -7734,7 +7983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -7763,7 +8012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -7792,7 +8041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -7821,7 +8070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -7850,7 +8099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -7879,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -7908,7 +8157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -7937,7 +8186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -7966,7 +8215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -7995,7 +8244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -8024,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -8053,7 +8302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -8082,7 +8331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -8111,7 +8360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -8140,7 +8389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -8169,7 +8418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -8198,7 +8447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -8227,7 +8476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -8256,7 +8505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -8285,7 +8534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -8314,7 +8563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -8343,7 +8592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -8372,7 +8621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -8401,7 +8650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -8430,7 +8679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -8459,7 +8708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -8488,7 +8737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -8517,7 +8766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -8546,7 +8795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -8575,7 +8824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -8604,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -8633,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -8662,7 +8911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -8691,7 +8940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -8720,7 +8969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -8749,7 +8998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -8778,7 +9027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -8807,7 +9056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -8836,7 +9085,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -8865,7 +9114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -8894,7 +9143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -8923,7 +9172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -8952,7 +9201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -8981,7 +9230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -9010,7 +9259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -9039,7 +9288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -9068,7 +9317,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -9097,7 +9346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -9126,7 +9375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -9155,7 +9404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -9184,7 +9433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -9213,7 +9462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -9242,7 +9491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -9271,7 +9520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -9300,7 +9549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -9329,7 +9578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -9358,7 +9607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -9387,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -9416,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -9445,7 +9694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -9474,7 +9723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -9503,7 +9752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -9532,7 +9781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -9561,7 +9810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -9590,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -9619,7 +9868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -9648,7 +9897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -9677,7 +9926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -9706,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -9735,7 +9984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -9764,7 +10013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -9793,7 +10042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -9822,7 +10071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -9851,7 +10100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
@@ -9880,7 +10129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180">
         <v>179</v>
       </c>
@@ -9909,7 +10158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A181">
         <v>180</v>
       </c>
@@ -9938,7 +10187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A182">
         <v>181</v>
       </c>
@@ -9967,7 +10216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A183">
         <v>182</v>
       </c>
@@ -9996,7 +10245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A184">
         <v>183</v>
       </c>
@@ -10025,7 +10274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A185">
         <v>184</v>
       </c>
@@ -10054,7 +10303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A186">
         <v>185</v>
       </c>
@@ -10083,7 +10332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187">
         <v>186</v>
       </c>
@@ -10112,7 +10361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188">
         <v>187</v>
       </c>
@@ -10141,7 +10390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A189">
         <v>188</v>
       </c>
@@ -10170,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A190">
         <v>189</v>
       </c>
@@ -10199,7 +10448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A191">
         <v>190</v>
       </c>
@@ -10228,7 +10477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A192">
         <v>191</v>
       </c>
@@ -10257,7 +10506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A193">
         <v>192</v>
       </c>
@@ -10286,7 +10535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A194">
         <v>193</v>
       </c>
@@ -10315,7 +10564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A195">
         <v>194</v>
       </c>
@@ -10344,7 +10593,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A196">
         <v>195</v>
       </c>
@@ -10373,7 +10622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A197">
         <v>196</v>
       </c>
@@ -10402,7 +10651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A198">
         <v>197</v>
       </c>
@@ -10431,7 +10680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A199">
         <v>198</v>
       </c>
@@ -10460,7 +10709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200">
         <v>199</v>
       </c>
@@ -10489,7 +10738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201">
         <v>200</v>
       </c>
@@ -10518,7 +10767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A202">
         <v>201</v>
       </c>
@@ -10547,7 +10796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A203">
         <v>202</v>
       </c>
@@ -10576,7 +10825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A204">
         <v>203</v>
       </c>
@@ -10605,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A205">
         <v>204</v>
       </c>
@@ -10634,7 +10883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A206">
         <v>205</v>
       </c>
@@ -10663,7 +10912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A207">
         <v>206</v>
       </c>
@@ -10692,7 +10941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A208">
         <v>207</v>
       </c>
@@ -10721,7 +10970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A209">
         <v>208</v>
       </c>
@@ -10750,7 +10999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A210">
         <v>209</v>
       </c>
@@ -10779,7 +11028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A211">
         <v>210</v>
       </c>
@@ -10808,7 +11057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A212">
         <v>211</v>
       </c>
@@ -10837,7 +11086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A213">
         <v>212</v>
       </c>
@@ -10866,7 +11115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A214">
         <v>213</v>
       </c>
@@ -10895,7 +11144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215">
         <v>214</v>
       </c>
@@ -10924,7 +11173,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216">
         <v>215</v>
       </c>
@@ -10953,7 +11202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A217">
         <v>216</v>
       </c>
@@ -10982,7 +11231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218">
         <v>217</v>
       </c>
@@ -11011,7 +11260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219">
         <v>218</v>
       </c>
@@ -11040,7 +11289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A220">
         <v>219</v>
       </c>
@@ -11069,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A221">
         <v>220</v>
       </c>
@@ -11098,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A222">
         <v>221</v>
       </c>
@@ -11127,7 +11376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A223">
         <v>222</v>
       </c>
@@ -11156,7 +11405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A224">
         <v>223</v>
       </c>
@@ -11185,7 +11434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225">
         <v>224</v>
       </c>
@@ -11214,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226">
         <v>225</v>
       </c>
@@ -11243,7 +11492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227">
         <v>226</v>
       </c>
@@ -11272,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228">
         <v>227</v>
       </c>
@@ -11301,7 +11550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A229">
         <v>228</v>
       </c>
@@ -11330,7 +11579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A230">
         <v>229</v>
       </c>
@@ -11359,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A231">
         <v>230</v>
       </c>
@@ -11388,7 +11637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A232">
         <v>231</v>
       </c>
@@ -11417,7 +11666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A233">
         <v>232</v>
       </c>
@@ -11446,7 +11695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A234">
         <v>233</v>
       </c>
@@ -11475,7 +11724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235">
         <v>234</v>
       </c>
@@ -11504,7 +11753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236">
         <v>235</v>
       </c>
@@ -11533,7 +11782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A237">
         <v>236</v>
       </c>
@@ -11562,7 +11811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A238">
         <v>237</v>
       </c>
@@ -11591,7 +11840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A239">
         <v>238</v>
       </c>
@@ -11620,7 +11869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240">
         <v>239</v>
       </c>
@@ -11649,7 +11898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241">
         <v>240</v>
       </c>
@@ -11678,7 +11927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242">
         <v>241</v>
       </c>
@@ -11707,7 +11956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243">
         <v>242</v>
       </c>
@@ -11736,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244">
         <v>243</v>
       </c>
@@ -11765,7 +12014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A245">
         <v>244</v>
       </c>
@@ -11794,7 +12043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A246">
         <v>245</v>
       </c>
@@ -11823,7 +12072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A247">
         <v>246</v>
       </c>
@@ -11852,7 +12101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A248">
         <v>247</v>
       </c>
@@ -11881,7 +12130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249">
         <v>248</v>
       </c>
@@ -11910,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250">
         <v>249</v>
       </c>
@@ -11939,7 +12188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251">
         <v>250</v>
       </c>
@@ -11968,7 +12217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252">
         <v>251</v>
       </c>
@@ -11997,7 +12246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A253">
         <v>252</v>
       </c>
@@ -12026,7 +12275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A254">
         <v>253</v>
       </c>
@@ -12055,7 +12304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255">
         <v>254</v>
       </c>
@@ -12084,7 +12333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A256">
         <v>255</v>
       </c>
@@ -12113,7 +12362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A257">
         <v>256</v>
       </c>
@@ -12142,7 +12391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A258">
         <v>257</v>
       </c>
@@ -12171,7 +12420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A259">
         <v>258</v>
       </c>
@@ -12200,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A260">
         <v>259</v>
       </c>
@@ -12229,7 +12478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A261">
         <v>260</v>
       </c>
@@ -12258,7 +12507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262">
         <v>261</v>
       </c>
@@ -12287,7 +12536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263">
         <v>262</v>
       </c>
@@ -12316,7 +12565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A264">
         <v>263</v>
       </c>
@@ -12345,7 +12594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A265">
         <v>264</v>
       </c>
@@ -12374,7 +12623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A266">
         <v>265</v>
       </c>
@@ -12403,7 +12652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A267">
         <v>266</v>
       </c>
@@ -12432,7 +12681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268">
         <v>267</v>
       </c>
@@ -12461,7 +12710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269">
         <v>268</v>
       </c>
@@ -12490,7 +12739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270">
         <v>269</v>
       </c>
@@ -12519,7 +12768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271">
         <v>270</v>
       </c>
@@ -12548,7 +12797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272">
         <v>271</v>
       </c>
@@ -12577,7 +12826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273">
         <v>272</v>
       </c>
@@ -12606,7 +12855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274">
         <v>273</v>
       </c>
@@ -12635,7 +12884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275">
         <v>274</v>
       </c>
@@ -12664,7 +12913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276">
         <v>275</v>
       </c>
@@ -12693,7 +12942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277">
         <v>276</v>
       </c>
@@ -12722,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278">
         <v>277</v>
       </c>
@@ -12751,7 +13000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279">
         <v>278</v>
       </c>
@@ -12780,7 +13029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A280">
         <v>279</v>
       </c>
@@ -12809,7 +13058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281">
         <v>280</v>
       </c>
@@ -12838,7 +13087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282">
         <v>281</v>
       </c>
@@ -12867,7 +13116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A283">
         <v>282</v>
       </c>
@@ -12896,7 +13145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A284">
         <v>283</v>
       </c>
@@ -12925,7 +13174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A285">
         <v>284</v>
       </c>
@@ -12954,7 +13203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A286">
         <v>285</v>
       </c>
@@ -12983,7 +13232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A287">
         <v>286</v>
       </c>
@@ -13012,7 +13261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288">
         <v>287</v>
       </c>
@@ -13041,7 +13290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289">
         <v>288</v>
       </c>
@@ -13070,7 +13319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290">
         <v>289</v>
       </c>
@@ -13099,7 +13348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291">
         <v>290</v>
       </c>
@@ -13128,7 +13377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A292">
         <v>291</v>
       </c>
@@ -13157,7 +13406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A293">
         <v>292</v>
       </c>
@@ -13186,7 +13435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A294">
         <v>293</v>
       </c>
@@ -13215,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295">
         <v>294</v>
       </c>
@@ -13244,7 +13493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296">
         <v>295</v>
       </c>
@@ -13273,7 +13522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A297">
         <v>296</v>
       </c>
@@ -13302,7 +13551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A298">
         <v>297</v>
       </c>
@@ -13331,7 +13580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A299">
         <v>298</v>
       </c>
@@ -13360,7 +13609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A300">
         <v>299</v>
       </c>
@@ -13389,7 +13638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301">
         <v>300</v>
       </c>
@@ -13418,7 +13667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302">
         <v>301</v>
       </c>
@@ -13447,7 +13696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303">
         <v>302</v>
       </c>
@@ -13476,7 +13725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304">
         <v>303</v>
       </c>
@@ -13505,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A305">
         <v>304</v>
       </c>
@@ -13534,7 +13783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A306">
         <v>305</v>
       </c>
@@ -13563,7 +13812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A307">
         <v>306</v>
       </c>
@@ -13592,7 +13841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A308">
         <v>307</v>
       </c>
@@ -13621,7 +13870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A309">
         <v>308</v>
       </c>
@@ -13650,7 +13899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A310">
         <v>309</v>
       </c>
@@ -13679,7 +13928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A311">
         <v>310</v>
       </c>
@@ -13708,7 +13957,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A312">
         <v>311</v>
       </c>
@@ -13737,7 +13986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A313">
         <v>312</v>
       </c>
@@ -13766,7 +14015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A314">
         <v>313</v>
       </c>
@@ -13795,7 +14044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A315">
         <v>314</v>
       </c>
@@ -13824,7 +14073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316">
         <v>315</v>
       </c>
@@ -13853,7 +14102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317">
         <v>316</v>
       </c>
@@ -13882,7 +14131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A318">
         <v>317</v>
       </c>
@@ -13911,7 +14160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A319">
         <v>318</v>
       </c>
@@ -13940,7 +14189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A320">
         <v>319</v>
       </c>
@@ -13969,7 +14218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A321">
         <v>320</v>
       </c>
@@ -13998,7 +14247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A322">
         <v>321</v>
       </c>
@@ -14027,7 +14276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A323">
         <v>322</v>
       </c>
@@ -14056,7 +14305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A324">
         <v>323</v>
       </c>
@@ -14085,7 +14334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325">
         <v>324</v>
       </c>
@@ -14114,7 +14363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326">
         <v>325</v>
       </c>
@@ -14143,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327">
         <v>326</v>
       </c>
@@ -14172,7 +14421,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328">
         <v>327</v>
       </c>
@@ -14201,7 +14450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A329">
         <v>328</v>
       </c>
@@ -14230,7 +14479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A330">
         <v>329</v>
       </c>
@@ -14259,7 +14508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A331">
         <v>330</v>
       </c>
@@ -14288,7 +14537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A332">
         <v>331</v>
       </c>
@@ -14317,7 +14566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A333">
         <v>332</v>
       </c>
@@ -14346,7 +14595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334">
         <v>333</v>
       </c>
@@ -14375,7 +14624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335">
         <v>334</v>
       </c>
@@ -14404,7 +14653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336">
         <v>335</v>
       </c>
@@ -14433,7 +14682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337">
         <v>336</v>
       </c>
@@ -14462,7 +14711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338">
         <v>337</v>
       </c>
@@ -14491,7 +14740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339">
         <v>338</v>
       </c>
@@ -14520,7 +14769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340">
         <v>339</v>
       </c>
@@ -14549,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341">
         <v>340</v>
       </c>
@@ -14578,7 +14827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A342">
         <v>341</v>
       </c>
@@ -14607,7 +14856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A343">
         <v>342</v>
       </c>
@@ -14636,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A344">
         <v>343</v>
       </c>
@@ -14665,7 +14914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A345">
         <v>344</v>
       </c>
@@ -14694,7 +14943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A346">
         <v>345</v>
       </c>
@@ -14723,7 +14972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A347">
         <v>346</v>
       </c>
@@ -14752,7 +15001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A348">
         <v>347</v>
       </c>
@@ -14781,7 +15030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A349">
         <v>348</v>
       </c>
@@ -14810,7 +15059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350">
         <v>349</v>
       </c>
@@ -14839,7 +15088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351">
         <v>350</v>
       </c>
@@ -14868,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352">
         <v>351</v>
       </c>
@@ -14897,7 +15146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353">
         <v>352</v>
       </c>
@@ -14926,7 +15175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A354">
         <v>353</v>
       </c>
@@ -14955,7 +15204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355">
         <v>354</v>
       </c>
@@ -14984,7 +15233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356">
         <v>355</v>
       </c>
@@ -15013,7 +15262,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A357">
         <v>356</v>
       </c>
@@ -15042,7 +15291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A358">
         <v>357</v>
       </c>
@@ -15071,7 +15320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A359">
         <v>358</v>
       </c>
@@ -15100,7 +15349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360">
         <v>359</v>
       </c>
@@ -15129,7 +15378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361">
         <v>360</v>
       </c>
@@ -15158,7 +15407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A362">
         <v>361</v>
       </c>
@@ -15187,7 +15436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A363">
         <v>362</v>
       </c>
@@ -15216,7 +15465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A364">
         <v>363</v>
       </c>
@@ -15245,7 +15494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A365">
         <v>364</v>
       </c>
@@ -15274,7 +15523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A366">
         <v>365</v>
       </c>
@@ -15303,7 +15552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A367">
         <v>366</v>
       </c>
@@ -15332,7 +15581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A368">
         <v>367</v>
       </c>
@@ -15361,7 +15610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A369">
         <v>368</v>
       </c>
@@ -15390,7 +15639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A370">
         <v>369</v>
       </c>
@@ -15419,7 +15668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A371">
         <v>370</v>
       </c>
@@ -15448,7 +15697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A372">
         <v>371</v>
       </c>
@@ -15477,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A373">
         <v>372</v>
       </c>
@@ -15506,7 +15755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A374">
         <v>373</v>
       </c>
@@ -15535,7 +15784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A375">
         <v>374</v>
       </c>
@@ -15564,7 +15813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376">
         <v>375</v>
       </c>
@@ -15593,7 +15842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377">
         <v>376</v>
       </c>
@@ -15622,7 +15871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A378">
         <v>377</v>
       </c>
@@ -15651,7 +15900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A379">
         <v>378</v>
       </c>
@@ -15680,7 +15929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>379</v>
       </c>
@@ -15709,7 +15958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>380</v>
       </c>
@@ -15738,7 +15987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>381</v>
       </c>
@@ -15767,7 +16016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>382</v>
       </c>
@@ -15796,7 +16045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>383</v>
       </c>
@@ -15825,7 +16074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>384</v>
       </c>
@@ -15854,7 +16103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>385</v>
       </c>
@@ -15883,7 +16132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>386</v>
       </c>
@@ -15912,7 +16161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>387</v>
       </c>
@@ -15941,7 +16190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>388</v>
       </c>
@@ -15970,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>389</v>
       </c>
@@ -15999,7 +16248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>390</v>
       </c>
@@ -16028,7 +16277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>391</v>
       </c>
@@ -16057,7 +16306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>392</v>
       </c>
@@ -16086,7 +16335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>393</v>
       </c>
@@ -16115,7 +16364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395">
         <v>394</v>
       </c>
@@ -16144,7 +16393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A396">
         <v>395</v>
       </c>
@@ -16173,7 +16422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A397">
         <v>396</v>
       </c>
@@ -16202,7 +16451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A398">
         <v>397</v>
       </c>
@@ -16231,7 +16480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A399">
         <v>398</v>
       </c>
@@ -16260,7 +16509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400">
         <v>399</v>
       </c>
@@ -16289,7 +16538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401">
         <v>400</v>
       </c>
@@ -16318,7 +16567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A402">
         <v>401</v>
       </c>
@@ -16347,7 +16596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A403">
         <v>402</v>
       </c>
@@ -16376,7 +16625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A404">
         <v>403</v>
       </c>
@@ -16405,7 +16654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A405">
         <v>404</v>
       </c>
@@ -16434,7 +16683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A406">
         <v>405</v>
       </c>
@@ -16463,7 +16712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A407">
         <v>406</v>
       </c>
@@ -16492,7 +16741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408">
         <v>407</v>
       </c>
@@ -16521,7 +16770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409">
         <v>408</v>
       </c>
@@ -16550,7 +16799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A410">
         <v>409</v>
       </c>
@@ -16579,7 +16828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411">
         <v>410</v>
       </c>
@@ -16608,7 +16857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412">
         <v>411</v>
       </c>
@@ -16637,7 +16886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A413">
         <v>412</v>
       </c>
@@ -16666,7 +16915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A414">
         <v>413</v>
       </c>
@@ -16695,7 +16944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415">
         <v>414</v>
       </c>
@@ -16724,7 +16973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416">
         <v>415</v>
       </c>
@@ -16753,7 +17002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417">
         <v>416</v>
       </c>
@@ -16782,7 +17031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418">
         <v>417</v>
       </c>
@@ -16811,7 +17060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A419">
         <v>418</v>
       </c>
@@ -16840,7 +17089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A420">
         <v>419</v>
       </c>
@@ -16869,7 +17118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A421">
         <v>420</v>
       </c>
@@ -16898,7 +17147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422">
         <v>421</v>
       </c>
@@ -16927,7 +17176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423">
         <v>422</v>
       </c>
@@ -16956,7 +17205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A424">
         <v>423</v>
       </c>
@@ -16985,7 +17234,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A425">
         <v>424</v>
       </c>
@@ -17014,7 +17263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A426">
         <v>425</v>
       </c>
@@ -17043,7 +17292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A427">
         <v>426</v>
       </c>
@@ -17072,7 +17321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A428">
         <v>427</v>
       </c>
@@ -17101,7 +17350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429">
         <v>428</v>
       </c>
@@ -17130,7 +17379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430">
         <v>429</v>
       </c>
@@ -17159,7 +17408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A431">
         <v>430</v>
       </c>
@@ -17188,7 +17437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A432">
         <v>431</v>
       </c>
@@ -17217,7 +17466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A433">
         <v>432</v>
       </c>
@@ -17246,7 +17495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A434">
         <v>433</v>
       </c>
@@ -17275,7 +17524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A435">
         <v>434</v>
       </c>
@@ -17304,7 +17553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A436">
         <v>435</v>
       </c>
@@ -17333,7 +17582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A437">
         <v>436</v>
       </c>
@@ -17362,7 +17611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A438">
         <v>437</v>
       </c>
@@ -17391,7 +17640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A439">
         <v>438</v>
       </c>
@@ -17420,7 +17669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440">
         <v>439</v>
       </c>
@@ -17449,7 +17698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441">
         <v>440</v>
       </c>
@@ -17478,7 +17727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442">
         <v>441</v>
       </c>
@@ -17507,7 +17756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443">
         <v>442</v>
       </c>
@@ -17536,7 +17785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A444">
         <v>443</v>
       </c>
@@ -17565,7 +17814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>444</v>
       </c>
@@ -17594,7 +17843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>445</v>
       </c>
@@ -17623,7 +17872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447">
         <v>446</v>
       </c>
@@ -17652,7 +17901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448">
         <v>447</v>
       </c>
@@ -17681,7 +17930,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A449">
         <v>448</v>
       </c>
@@ -17710,7 +17959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A450">
         <v>449</v>
       </c>
@@ -17739,7 +17988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451">
         <v>450</v>
       </c>
@@ -17768,7 +18017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452">
         <v>451</v>
       </c>
@@ -17797,7 +18046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A453">
         <v>452</v>
       </c>
@@ -17826,7 +18075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A454">
         <v>453</v>
       </c>
@@ -17855,7 +18104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A455">
         <v>454</v>
       </c>
@@ -17884,7 +18133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A456">
         <v>455</v>
       </c>
@@ -17913,7 +18162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457">
         <v>456</v>
       </c>
@@ -17942,7 +18191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>457</v>
       </c>
@@ -17971,7 +18220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>458</v>
       </c>
@@ -18000,7 +18249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460">
         <v>459</v>
       </c>
@@ -18029,7 +18278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461">
         <v>460</v>
       </c>
@@ -18058,7 +18307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A462">
         <v>461</v>
       </c>
@@ -18087,7 +18336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A463">
         <v>462</v>
       </c>
@@ -18116,7 +18365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A464">
         <v>463</v>
       </c>
@@ -18145,7 +18394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A465">
         <v>464</v>
       </c>
@@ -18174,7 +18423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A466">
         <v>465</v>
       </c>
@@ -18203,7 +18452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A467">
         <v>466</v>
       </c>
@@ -18232,7 +18481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A468">
         <v>467</v>
       </c>
@@ -18261,7 +18510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A469">
         <v>468</v>
       </c>
@@ -18290,7 +18539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470">
         <v>469</v>
       </c>
@@ -18319,7 +18568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471">
         <v>470</v>
       </c>
@@ -18348,7 +18597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A472">
         <v>471</v>
       </c>
@@ -18377,7 +18626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>472</v>
       </c>
@@ -18406,7 +18655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>473</v>
       </c>
@@ -18435,7 +18684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475">
         <v>474</v>
       </c>
@@ -18464,7 +18713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476">
         <v>475</v>
       </c>
@@ -18493,7 +18742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A477">
         <v>476</v>
       </c>
@@ -18522,7 +18771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A478">
         <v>477</v>
       </c>
@@ -18551,7 +18800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A479">
         <v>478</v>
       </c>
@@ -18580,7 +18829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A480">
         <v>479</v>
       </c>
@@ -18609,7 +18858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A481">
         <v>480</v>
       </c>
@@ -18638,7 +18887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A482">
         <v>481</v>
       </c>
@@ -18667,7 +18916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A483">
         <v>482</v>
       </c>
@@ -18696,7 +18945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484">
         <v>483</v>
       </c>
@@ -18725,7 +18974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485">
         <v>484</v>
       </c>
@@ -18754,7 +19003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A486">
         <v>485</v>
       </c>
@@ -18783,7 +19032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A487">
         <v>486</v>
       </c>
@@ -18812,7 +19061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>487</v>
       </c>
@@ -18841,7 +19090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>488</v>
       </c>
@@ -18870,7 +19119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A490">
         <v>489</v>
       </c>
@@ -18899,7 +19148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A491">
         <v>490</v>
       </c>
@@ -18928,7 +19177,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A492">
         <v>491</v>
       </c>
@@ -18957,7 +19206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A493">
         <v>492</v>
       </c>
@@ -18986,7 +19235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A494">
         <v>493</v>
       </c>
@@ -19015,7 +19264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A495">
         <v>494</v>
       </c>
@@ -19044,7 +19293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496">
         <v>495</v>
       </c>
@@ -19073,7 +19322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497">
         <v>496</v>
       </c>
@@ -19102,7 +19351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A498">
         <v>497</v>
       </c>
@@ -19131,7 +19380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499">
         <v>498</v>
       </c>
@@ -19160,7 +19409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500">
         <v>499</v>
       </c>
@@ -19189,7 +19438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501">
         <v>500</v>
       </c>
@@ -19218,7 +19467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>501</v>
       </c>
@@ -19247,7 +19496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>502</v>
       </c>
@@ -19276,7 +19525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="504" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A504">
         <v>503</v>
       </c>
@@ -19305,7 +19554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="505" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A505">
         <v>504</v>
       </c>
@@ -19334,7 +19583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A506">
         <v>505</v>
       </c>
@@ -19363,7 +19612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="507" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A507">
         <v>506</v>
       </c>
@@ -19392,7 +19641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="508" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A508">
         <v>507</v>
       </c>
@@ -19421,7 +19670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A509">
         <v>508</v>
       </c>
@@ -19450,7 +19699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="510" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A510">
         <v>509</v>
       </c>
@@ -19479,7 +19728,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="511" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A511">
         <v>510</v>
       </c>
@@ -19508,7 +19757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="512" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A512">
         <v>511</v>
       </c>
@@ -19537,7 +19786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="513" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A513">
         <v>512</v>
       </c>
@@ -19566,7 +19815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="514" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A514">
         <v>513</v>
       </c>
@@ -19595,7 +19844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="515" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A515">
         <v>514</v>
       </c>
@@ -19624,7 +19873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A516">
         <v>515</v>
       </c>
@@ -19653,7 +19902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>516</v>
       </c>
@@ -19682,7 +19931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>517</v>
       </c>
@@ -19711,7 +19960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="519" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A519">
         <v>518</v>
       </c>
@@ -19740,7 +19989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="520" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A520">
         <v>519</v>
       </c>
@@ -19769,7 +20018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="521" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A521">
         <v>520</v>
       </c>
@@ -19798,7 +20047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A522">
         <v>521</v>
       </c>
@@ -19827,7 +20076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="523" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A523">
         <v>522</v>
       </c>
@@ -19856,7 +20105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="524" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A524">
         <v>523</v>
       </c>
@@ -19885,7 +20134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="525" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A525">
         <v>524</v>
       </c>
@@ -19914,7 +20163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="526" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A526">
         <v>525</v>
       </c>
@@ -19943,7 +20192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="527" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A527">
         <v>526</v>
       </c>
@@ -19972,7 +20221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="528" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A528">
         <v>527</v>
       </c>
@@ -20001,7 +20250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A529">
         <v>528</v>
       </c>
@@ -20030,7 +20279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="530" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A530">
         <v>529</v>
       </c>
@@ -20059,7 +20308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>530</v>
       </c>
@@ -20088,7 +20337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>531</v>
       </c>
@@ -20117,7 +20366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A533">
         <v>532</v>
       </c>
@@ -20146,7 +20395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="534" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A534">
         <v>533</v>
       </c>
@@ -20175,7 +20424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="535" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A535">
         <v>534</v>
       </c>
@@ -20204,7 +20453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A536">
         <v>535</v>
       </c>
@@ -20233,7 +20482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="537" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A537">
         <v>536</v>
       </c>
@@ -20262,7 +20511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="538" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A538">
         <v>537</v>
       </c>
@@ -20291,7 +20540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="539" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A539">
         <v>538</v>
       </c>
@@ -20320,7 +20569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A540">
         <v>539</v>
       </c>
@@ -20349,7 +20598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="541" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A541">
         <v>540</v>
       </c>
@@ -20378,7 +20627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="542" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A542">
         <v>541</v>
       </c>
@@ -20407,7 +20656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="543" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A543">
         <v>542</v>
       </c>
@@ -20436,7 +20685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="544" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A544">
         <v>543</v>
       </c>
@@ -20465,7 +20714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A545">
         <v>544</v>
       </c>
@@ -20494,7 +20743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="546" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A546">
         <v>545</v>
       </c>
@@ -20523,7 +20772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="547" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A547">
         <v>546</v>
       </c>
@@ -20552,7 +20801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="548" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A548">
         <v>547</v>
       </c>
@@ -20581,7 +20830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="549" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A549">
         <v>548</v>
       </c>
@@ -20610,7 +20859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A550">
         <v>549</v>
       </c>
@@ -20639,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="551" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A551">
         <v>550</v>
       </c>
@@ -20668,7 +20917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="552" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A552">
         <v>551</v>
       </c>
@@ -20697,7 +20946,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="553" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A553">
         <v>552</v>
       </c>
@@ -20726,7 +20975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="554" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A554">
         <v>553</v>
       </c>
@@ -20755,7 +21004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="555" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A555">
         <v>554</v>
       </c>
@@ -20784,7 +21033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="556" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A556">
         <v>555</v>
       </c>
@@ -20813,7 +21062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A557">
         <v>556</v>
       </c>
@@ -20842,7 +21091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="558" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A558">
         <v>557</v>
       </c>
@@ -20871,7 +21120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="559" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A559">
         <v>558</v>
       </c>
@@ -20900,7 +21149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="560" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A560">
         <v>559</v>
       </c>
@@ -20929,7 +21178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="561" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A561">
         <v>560</v>
       </c>
@@ -20958,7 +21207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="562" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A562">
         <v>561</v>
       </c>
@@ -20987,7 +21236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A563">
         <v>562</v>
       </c>
@@ -21016,7 +21265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="564" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A564">
         <v>563</v>
       </c>
@@ -21045,7 +21294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="565" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A565">
         <v>564</v>
       </c>
@@ -21074,7 +21323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="566" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A566">
         <v>565</v>
       </c>
@@ -21103,7 +21352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="567" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A567">
         <v>566</v>
       </c>
@@ -21132,7 +21381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="568" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A568">
         <v>567</v>
       </c>
@@ -21161,7 +21410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="569" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A569">
         <v>568</v>
       </c>
@@ -21190,7 +21439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="570" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A570">
         <v>569</v>
       </c>
@@ -21219,7 +21468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="571" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A571">
         <v>570</v>
       </c>
@@ -21248,7 +21497,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A572">
         <v>571</v>
       </c>
@@ -21277,7 +21526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="573" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A573">
         <v>572</v>
       </c>
@@ -21306,7 +21555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="574" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A574">
         <v>573</v>
       </c>
@@ -21335,7 +21584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="575" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A575">
         <v>574</v>
       </c>
@@ -21364,7 +21613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="576" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A576">
         <v>575</v>
       </c>
@@ -21393,7 +21642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="577" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A577">
         <v>576</v>
       </c>
@@ -21422,7 +21671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="578" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A578">
         <v>577</v>
       </c>
@@ -21451,7 +21700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="579" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A579">
         <v>578</v>
       </c>
@@ -21480,7 +21729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="580" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A580">
         <v>579</v>
       </c>
@@ -21509,7 +21758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A581">
         <v>580</v>
       </c>
@@ -21538,7 +21787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="582" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A582">
         <v>581</v>
       </c>
@@ -21567,7 +21816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="583" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A583">
         <v>582</v>
       </c>
@@ -21596,7 +21845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="584" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A584">
         <v>583</v>
       </c>
@@ -21625,7 +21874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="585" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A585">
         <v>584</v>
       </c>
@@ -21654,7 +21903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A586">
         <v>585</v>
       </c>
@@ -21683,7 +21932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="587" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A587">
         <v>586</v>
       </c>
@@ -21712,7 +21961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="588" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A588">
         <v>587</v>
       </c>
@@ -21741,7 +21990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="589" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A589">
         <v>588</v>
       </c>
@@ -21770,7 +22019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="590" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A590">
         <v>589</v>
       </c>
@@ -21799,7 +22048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="591" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A591">
         <v>590</v>
       </c>
@@ -21828,7 +22077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="592" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A592">
         <v>591</v>
       </c>
@@ -21857,7 +22106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="593" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A593">
         <v>592</v>
       </c>
@@ -21886,7 +22135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A594">
         <v>593</v>
       </c>
@@ -21915,7 +22164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="595" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A595">
         <v>594</v>
       </c>
@@ -21944,7 +22193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="596" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A596">
         <v>595</v>
       </c>
@@ -21973,7 +22222,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="597" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A597">
         <v>596</v>
       </c>
@@ -22002,7 +22251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A598">
         <v>597</v>
       </c>
@@ -22031,7 +22280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="599" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A599">
         <v>598</v>
       </c>
@@ -22060,7 +22309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="600" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A600">
         <v>599</v>
       </c>
@@ -22089,7 +22338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="601" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A601">
         <v>600</v>
       </c>
@@ -22118,7 +22367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="602" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A602">
         <v>601</v>
       </c>
@@ -22147,7 +22396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="603" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A603">
         <v>602</v>
       </c>
@@ -22176,7 +22425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="604" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A604">
         <v>603</v>
       </c>
@@ -22205,7 +22454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="605" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A605">
         <v>604</v>
       </c>
@@ -22234,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="606" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A606">
         <v>605</v>
       </c>
@@ -22263,7 +22512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="607" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A607">
         <v>606</v>
       </c>
@@ -22292,7 +22541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="608" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A608">
         <v>607</v>
       </c>
@@ -22321,7 +22570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A609">
         <v>608</v>
       </c>
@@ -22350,7 +22599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="610" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A610">
         <v>609</v>
       </c>
@@ -22379,7 +22628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="611" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A611">
         <v>610</v>
       </c>
@@ -22408,7 +22657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="612" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A612">
         <v>611</v>
       </c>
@@ -22437,7 +22686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="613" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A613">
         <v>612</v>
       </c>
@@ -22466,7 +22715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="614" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A614">
         <v>613</v>
       </c>
@@ -22495,7 +22744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="615" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A615">
         <v>614</v>
       </c>
@@ -22524,7 +22773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="616" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A616">
         <v>615</v>
       </c>
@@ -22553,7 +22802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="617" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A617">
         <v>616</v>
       </c>
@@ -22582,7 +22831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="618" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A618">
         <v>617</v>
       </c>
@@ -22611,7 +22860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="619" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A619">
         <v>618</v>
       </c>
@@ -22640,7 +22889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A620">
         <v>619</v>
       </c>
@@ -22669,7 +22918,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="621" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A621">
         <v>620</v>
       </c>
@@ -22698,7 +22947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="622" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A622">
         <v>621</v>
       </c>
@@ -22727,7 +22976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="623" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A623">
         <v>622</v>
       </c>
@@ -22756,7 +23005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="624" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A624">
         <v>623</v>
       </c>
@@ -22785,7 +23034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="625" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A625">
         <v>624</v>
       </c>
@@ -22814,7 +23063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="626" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A626">
         <v>625</v>
       </c>
@@ -22843,7 +23092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="627" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A627">
         <v>626</v>
       </c>
@@ -22872,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="628" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A628">
         <v>627</v>
       </c>
@@ -22901,7 +23150,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="629" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A629">
         <v>628</v>
       </c>
@@ -22930,7 +23179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A630">
         <v>629</v>
       </c>
@@ -22959,7 +23208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="631" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A631">
         <v>630</v>
       </c>
@@ -22988,7 +23237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="632" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A632">
         <v>631</v>
       </c>
@@ -23017,7 +23266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A633">
         <v>632</v>
       </c>
@@ -23046,7 +23295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="634" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A634">
         <v>633</v>
       </c>
@@ -23075,7 +23324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="635" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A635">
         <v>634</v>
       </c>
@@ -23104,7 +23353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="636" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A636">
         <v>635</v>
       </c>
@@ -23133,7 +23382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="637" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A637">
         <v>636</v>
       </c>
@@ -23162,7 +23411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="638" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A638">
         <v>637</v>
       </c>
@@ -23191,7 +23440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="639" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A639">
         <v>638</v>
       </c>
@@ -23220,7 +23469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="640" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A640">
         <v>639</v>
       </c>
@@ -23249,7 +23498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A641">
         <v>640</v>
       </c>
@@ -23278,7 +23527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="642" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A642">
         <v>641</v>
       </c>
@@ -23307,7 +23556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="643" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A643">
         <v>642</v>
       </c>
@@ -23336,7 +23585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="644" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A644">
         <v>643</v>
       </c>
@@ -23365,7 +23614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="645" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A645">
         <v>644</v>
       </c>
@@ -23394,7 +23643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="646" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A646">
         <v>645</v>
       </c>
@@ -23423,7 +23672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="647" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A647">
         <v>646</v>
       </c>
@@ -23452,7 +23701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="648" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A648">
         <v>647</v>
       </c>
@@ -23481,7 +23730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A649">
         <v>648</v>
       </c>
@@ -23510,7 +23759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="650" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A650">
         <v>649</v>
       </c>
@@ -23539,7 +23788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="651" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A651">
         <v>650</v>
       </c>
@@ -23568,7 +23817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="652" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A652">
         <v>651</v>
       </c>
@@ -23597,7 +23846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="653" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A653">
         <v>652</v>
       </c>
@@ -23626,7 +23875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="654" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A654">
         <v>653</v>
       </c>
@@ -23655,7 +23904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="655" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A655">
         <v>654</v>
       </c>
@@ -23684,7 +23933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="656" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A656">
         <v>655</v>
       </c>
@@ -23713,7 +23962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A657">
         <v>656</v>
       </c>
@@ -23742,7 +23991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A658">
         <v>657</v>
       </c>
@@ -23771,7 +24020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A659">
         <v>658</v>
       </c>
@@ -23800,7 +24049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A660">
         <v>659</v>
       </c>
@@ -23829,7 +24078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A661">
         <v>660</v>
       </c>
@@ -23858,7 +24107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A662">
         <v>661</v>
       </c>
@@ -23887,7 +24136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A663">
         <v>662</v>
       </c>
@@ -23916,7 +24165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A664">
         <v>663</v>
       </c>
@@ -23945,7 +24194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A665">
         <v>664</v>
       </c>
@@ -23974,7 +24223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A666">
         <v>665</v>
       </c>
@@ -24003,7 +24252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A667">
         <v>666</v>
       </c>
@@ -24032,7 +24281,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A668">
         <v>667</v>
       </c>
@@ -24061,7 +24310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A669">
         <v>668</v>
       </c>
@@ -24090,7 +24339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A670">
         <v>669</v>
       </c>
@@ -24119,7 +24368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A671">
         <v>670</v>
       </c>
@@ -24148,7 +24397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="672" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A672">
         <v>671</v>
       </c>
@@ -24177,7 +24426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="673" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A673">
         <v>672</v>
       </c>
@@ -24206,7 +24455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="674" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A674">
         <v>673</v>
       </c>
@@ -24235,7 +24484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="675" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A675">
         <v>674</v>
       </c>
@@ -24264,7 +24513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="676" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="676" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A676">
         <v>675</v>
       </c>
@@ -24293,7 +24542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="677" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A677">
         <v>676</v>
       </c>
@@ -24322,7 +24571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A678">
         <v>677</v>
       </c>
@@ -24351,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="679" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A679">
         <v>678</v>
       </c>
@@ -24380,7 +24629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="680" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A680">
         <v>679</v>
       </c>
@@ -24409,7 +24658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="681" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A681">
         <v>680</v>
       </c>
@@ -24438,7 +24687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="682" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A682">
         <v>681</v>
       </c>
@@ -24467,7 +24716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="683" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A683">
         <v>682</v>
       </c>
@@ -24496,7 +24745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="684" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A684">
         <v>683</v>
       </c>
@@ -24525,7 +24774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="685" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A685">
         <v>684</v>
       </c>
@@ -24554,7 +24803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="686" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A686">
         <v>685</v>
       </c>
@@ -24586,5 +24835,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/샘플데이터/게시판데이터/게시판데이터(2023-02-02).xlsx
+++ b/샘플데이터/게시판데이터/게시판데이터(2023-02-02).xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\게시판데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6544DDB5-1294-4C12-B3FF-8F4E3BE5936F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27BEE900-CF75-4DEC-B909-7356FA2A8BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3240" yWindow="1515" windowWidth="21630" windowHeight="13095" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="게시판데이터(2023-02-02)" sheetId="1" r:id="rId1"/>
@@ -4559,72 +4559,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="그림 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{917F204F-F37C-DA61-5FA3-68916D08026F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="11115675" cy="4705350"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -24836,6 +24770,5 @@
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>